--- a/data/trans_bre/Predimed_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R2-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.86959147798809</v>
+        <v>-4.896163953194331</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.06026572601940977</v>
+        <v>-0.06026680573517846</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.805908051406996</v>
+        <v>3.700682441075667</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.05091939984797843</v>
+        <v>0.04893165460783521</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-1.298324342465751</v>
+        <v>-1.298324342465773</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.01539272427432151</v>
+        <v>-0.01539272427432176</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.855922839392042</v>
+        <v>-4.824444202273829</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05631540392221897</v>
+        <v>-0.05584691926557741</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.196706616602659</v>
+        <v>2.264554636168007</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02626432793198067</v>
+        <v>0.02757959888652976</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-0.6318646601939149</v>
+        <v>-0.6318646601939037</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-0.007651620095092106</v>
+        <v>-0.007651620095091971</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.58002053691074</v>
+        <v>-4.468347558139671</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.05389925754671321</v>
+        <v>-0.05219724626280459</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.466368140227311</v>
+        <v>3.313670562693307</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.04361834077382482</v>
+        <v>0.0411807632546722</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-2.122769902185062</v>
+        <v>-2.122769902185051</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.02564157007961503</v>
+        <v>-0.0256415700796149</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.446068346304373</v>
+        <v>-5.388996910352487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06435918303010296</v>
+        <v>-0.06350611211231662</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.422046550476425</v>
+        <v>1.231466694509998</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01755428153085039</v>
+        <v>0.01520706696788214</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-1.293834256495019</v>
+        <v>-1.293834256495041</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-0.0157057785189728</v>
+        <v>-0.01570577851897306</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.217176485056857</v>
+        <v>-3.303756664424155</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.03851173349949046</v>
+        <v>-0.03975970820342617</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6253634411339126</v>
+        <v>0.4114633293175095</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.007703136049659003</v>
+        <v>0.004921857353856877</v>
       </c>
     </row>
     <row r="19">
